--- a/result_experiment_times.xlsx
+++ b/result_experiment_times.xlsx
@@ -397,22 +397,22 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>109121</v>
+        <v>121550</v>
       </c>
       <c r="C2">
-        <v>109280</v>
+        <v>105744</v>
       </c>
       <c r="D2">
-        <v>93495</v>
+        <v>101812</v>
       </c>
       <c r="E2">
-        <v>80118</v>
+        <v>82853</v>
       </c>
       <c r="F2">
-        <v>59134</v>
+        <v>60718</v>
       </c>
       <c r="G2">
-        <v>36997</v>
+        <v>39266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>250</v>
       </c>
       <c r="B3">
-        <v>116618</v>
+        <v>118026</v>
       </c>
       <c r="C3">
-        <v>104865</v>
+        <v>114025</v>
       </c>
       <c r="D3">
-        <v>98400</v>
+        <v>101920</v>
       </c>
       <c r="E3">
-        <v>82311</v>
+        <v>78632</v>
       </c>
       <c r="F3">
-        <v>58101</v>
+        <v>60619</v>
       </c>
       <c r="G3">
-        <v>38315</v>
+        <v>39622</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +443,22 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>110588</v>
+        <v>119943</v>
       </c>
       <c r="C4">
-        <v>111759</v>
+        <v>109627</v>
       </c>
       <c r="D4">
-        <v>90356</v>
+        <v>99716</v>
       </c>
       <c r="E4">
-        <v>78363</v>
+        <v>75667</v>
       </c>
       <c r="F4">
-        <v>60244</v>
+        <v>61713</v>
       </c>
       <c r="G4">
-        <v>37042</v>
+        <v>36711</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +466,22 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>113976</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>102034</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>93702</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>76456</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>59666</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>39639</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>112748</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>107343</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>89273</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>79754</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>59057</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>39770</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4000</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>108959</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>101052</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>90075</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>79517</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>58055</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>38569</v>
       </c>
     </row>
   </sheetData>

--- a/result_experiment_times.xlsx
+++ b/result_experiment_times.xlsx
@@ -397,22 +397,22 @@
         <v>125</v>
       </c>
       <c r="B2">
-        <v>121550</v>
+        <v>208435</v>
       </c>
       <c r="C2">
-        <v>105744</v>
+        <v>202589</v>
       </c>
       <c r="D2">
-        <v>101812</v>
+        <v>207564</v>
       </c>
       <c r="E2">
-        <v>82853</v>
+        <v>212096</v>
       </c>
       <c r="F2">
-        <v>60718</v>
+        <v>208223</v>
       </c>
       <c r="G2">
-        <v>39266</v>
+        <v>215149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -420,22 +420,22 @@
         <v>250</v>
       </c>
       <c r="B3">
-        <v>118026</v>
+        <v>214778</v>
       </c>
       <c r="C3">
-        <v>114025</v>
+        <v>215717</v>
       </c>
       <c r="D3">
-        <v>101920</v>
+        <v>216806</v>
       </c>
       <c r="E3">
-        <v>78632</v>
+        <v>216366</v>
       </c>
       <c r="F3">
-        <v>60619</v>
+        <v>216760</v>
       </c>
       <c r="G3">
-        <v>39622</v>
+        <v>220343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -443,22 +443,22 @@
         <v>500</v>
       </c>
       <c r="B4">
-        <v>119943</v>
+        <v>215247</v>
       </c>
       <c r="C4">
-        <v>109627</v>
+        <v>214204</v>
       </c>
       <c r="D4">
-        <v>99716</v>
+        <v>215853</v>
       </c>
       <c r="E4">
-        <v>75667</v>
+        <v>215439</v>
       </c>
       <c r="F4">
-        <v>61713</v>
+        <v>217042</v>
       </c>
       <c r="G4">
-        <v>36711</v>
+        <v>222209</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -466,22 +466,22 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>113976</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>102034</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>93702</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>76456</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>59666</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>39639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -489,22 +489,22 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>112748</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>107343</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>89273</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>79754</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>59057</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>39770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4000</v>
       </c>
       <c r="B7">
-        <v>108959</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>101052</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>90075</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>79517</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>58055</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>38569</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
